--- a/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8710BE3D-5FEB-462B-9129-EA3D4C1D6964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEC2A6E-838B-4E84-B170-55BF34D2BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6320B528-E05B-4C30-8733-0FA0F20BBCFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{600AA101-E6CC-4878-A7B3-11B40F21E351}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE89ED3B-C543-48C7-AB62-BB7E0F72EF01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E158D5-169B-4EDE-AEF0-AD154425B233}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEC2A6E-838B-4E84-B170-55BF34D2BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18693532-01D3-4435-A448-90F2483A6E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{600AA101-E6CC-4878-A7B3-11B40F21E351}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9960D83-CBE1-4CC8-A09C-B18224E527DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="252">
-  <si>
-    <t>Hogares con refrigeración por aire acondicionado mediante aparatos fijos en 2023 (Tasa respuesta: 99,87%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="253">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,721 +74,724 @@
     <t>17,53%</t>
   </si>
   <si>
-    <t>13,72%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>Si, pero no funciona correctamente</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>Si, pero no funciona correctamente</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>73,57%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1203,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E158D5-169B-4EDE-AEF0-AD154425B233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766B7498-4ED9-425A-98CE-4BD1D6EF4323}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1793,10 +1796,10 @@
         <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1805,13 +1808,13 @@
         <v>3036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1820,13 +1823,13 @@
         <v>7265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +1844,13 @@
         <v>264603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
@@ -1856,13 +1859,13 @@
         <v>303901</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>726</v>
@@ -1871,13 +1874,13 @@
         <v>568503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,7 +1936,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1945,13 +1948,13 @@
         <v>123993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -1960,13 +1963,13 @@
         <v>211635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>409</v>
@@ -1975,13 +1978,13 @@
         <v>335628</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +1999,13 @@
         <v>7444</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2011,13 +2014,13 @@
         <v>6062</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2026,13 +2029,13 @@
         <v>13506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2050,13 @@
         <v>190803</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>296</v>
@@ -2062,13 +2065,13 @@
         <v>208971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>461</v>
@@ -2077,13 +2080,13 @@
         <v>399773</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,7 +2142,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2154,13 @@
         <v>57451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -2166,13 +2169,13 @@
         <v>71972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -2181,13 +2184,13 @@
         <v>129423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2205,13 @@
         <v>5385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2217,13 +2220,13 @@
         <v>5230</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2232,13 +2235,13 @@
         <v>10614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2256,13 @@
         <v>133912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -2268,13 +2271,13 @@
         <v>182311</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
@@ -2283,13 +2286,13 @@
         <v>316223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,7 +2348,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2357,13 +2360,13 @@
         <v>47061</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>69</v>
@@ -2372,13 +2375,13 @@
         <v>34704</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -2387,13 +2390,13 @@
         <v>81765</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2411,13 @@
         <v>1602</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2423,13 +2426,13 @@
         <v>2810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2438,13 +2441,13 @@
         <v>4412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2462,13 @@
         <v>228560</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>384</v>
@@ -2474,13 +2477,13 @@
         <v>238108</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>680</v>
@@ -2489,13 +2492,13 @@
         <v>466668</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2554,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2563,13 +2566,13 @@
         <v>176653</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
@@ -2578,13 +2581,13 @@
         <v>205438</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>482</v>
@@ -2593,13 +2596,13 @@
         <v>382091</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2617,13 @@
         <v>13005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -2629,13 +2632,13 @@
         <v>8657</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -2644,13 +2647,13 @@
         <v>21662</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,10 +2790,10 @@
         <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>59</v>
@@ -2799,13 +2802,13 @@
         <v>53573</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2823,13 @@
         <v>8353</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -2835,13 +2838,13 @@
         <v>5902</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -2850,13 +2853,13 @@
         <v>14255</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2874,13 @@
         <v>824325</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>1024</v>
@@ -2886,13 +2889,13 @@
         <v>835709</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>1747</v>
@@ -2901,13 +2904,13 @@
         <v>1660034</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2978,13 @@
         <v>790339</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>1454</v>
@@ -2990,13 +2993,13 @@
         <v>977485</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>2271</v>
@@ -3005,13 +3008,13 @@
         <v>1767825</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +3029,10 @@
         <v>43079</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>237</v>
@@ -3056,13 +3059,13 @@
         <v>77790</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3080,13 @@
         <v>2549576</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H38" s="7">
         <v>3841</v>
@@ -3092,13 +3095,13 @@
         <v>2817515</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M38" s="7">
         <v>6347</v>
@@ -3107,13 +3110,13 @@
         <v>5367092</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,7 +3172,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18693532-01D3-4435-A448-90F2483A6E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C6BB16-00F3-4015-B9C1-6695C0322F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9960D83-CBE1-4CC8-A09C-B18224E527DA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1F5621E-BB53-4810-A36B-5E4D19904197}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="254">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
@@ -71,727 +71,730 @@
     <t>No</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
-    <t>0,06%</t>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>75,91%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1206,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766B7498-4ED9-425A-98CE-4BD1D6EF4323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD34D3D-39A9-4F4B-A647-53252FCB9E34}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1327,7 +1330,7 @@
         <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>45631</v>
+        <v>53481</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1342,7 +1345,7 @@
         <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>37570</v>
+        <v>42036</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1357,7 +1360,7 @@
         <v>159</v>
       </c>
       <c r="N4" s="7">
-        <v>83202</v>
+        <v>95516</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1378,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1393,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1549</v>
+        <v>1601</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1408,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>1708</v>
+        <v>1768</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1429,7 +1432,7 @@
         <v>255</v>
       </c>
       <c r="D6" s="7">
-        <v>214507</v>
+        <v>257795</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1444,7 +1447,7 @@
         <v>450</v>
       </c>
       <c r="I6" s="7">
-        <v>232283</v>
+        <v>245998</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1459,7 +1462,7 @@
         <v>705</v>
       </c>
       <c r="N6" s="7">
-        <v>446790</v>
+        <v>503792</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1480,7 +1483,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1495,7 +1498,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1510,7 +1513,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1533,7 +1536,7 @@
         <v>201</v>
       </c>
       <c r="D8" s="7">
-        <v>260440</v>
+        <v>259024</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1548,7 +1551,7 @@
         <v>423</v>
       </c>
       <c r="I8" s="7">
-        <v>322997</v>
+        <v>299959</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1563,7 +1566,7 @@
         <v>624</v>
       </c>
       <c r="N8" s="7">
-        <v>583437</v>
+        <v>558983</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1584,46 +1587,46 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>2903</v>
+        <v>2838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1465</v>
+        <v>1365</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>4368</v>
+        <v>4203</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,46 +1638,46 @@
         <v>179</v>
       </c>
       <c r="D10" s="7">
-        <v>255954</v>
+        <v>256528</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>292</v>
       </c>
       <c r="I10" s="7">
-        <v>230104</v>
+        <v>213645</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
       </c>
       <c r="N10" s="7">
-        <v>486059</v>
+        <v>470173</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,7 +1689,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1701,7 +1704,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1716,7 +1719,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1730,7 +1733,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1739,46 +1742,46 @@
         <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>52359</v>
+        <v>51275</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
       </c>
       <c r="I12" s="7">
-        <v>66347</v>
+        <v>61987</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
       </c>
       <c r="N12" s="7">
-        <v>118706</v>
+        <v>113263</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,46 +1793,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>4228</v>
+        <v>4169</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3036</v>
+        <v>2817</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>7265</v>
+        <v>6986</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,46 +1844,46 @@
         <v>296</v>
       </c>
       <c r="D14" s="7">
-        <v>264603</v>
+        <v>259586</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
       </c>
       <c r="I14" s="7">
-        <v>303901</v>
+        <v>284323</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>726</v>
       </c>
       <c r="N14" s="7">
-        <v>568503</v>
+        <v>543909</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,7 +1895,7 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321191</v>
+        <v>315031</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1907,7 +1910,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1922,7 +1925,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694474</v>
+        <v>664158</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1945,46 +1948,46 @@
         <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>123993</v>
+        <v>118324</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
       </c>
       <c r="I16" s="7">
-        <v>211635</v>
+        <v>251451</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>409</v>
       </c>
       <c r="N16" s="7">
-        <v>335628</v>
+        <v>369775</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,46 +1999,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>7444</v>
+        <v>7038</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>6062</v>
+        <v>5721</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>13506</v>
+        <v>12759</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,46 +2050,46 @@
         <v>165</v>
       </c>
       <c r="D18" s="7">
-        <v>190803</v>
+        <v>187194</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>296</v>
       </c>
       <c r="I18" s="7">
-        <v>208971</v>
+        <v>216780</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>461</v>
       </c>
       <c r="N18" s="7">
-        <v>399773</v>
+        <v>403973</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,7 +2101,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2113,7 +2116,7 @@
         <v>596</v>
       </c>
       <c r="I19" s="7">
-        <v>426667</v>
+        <v>473951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2128,7 +2131,7 @@
         <v>888</v>
       </c>
       <c r="N19" s="7">
-        <v>748907</v>
+        <v>786507</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2151,46 +2154,46 @@
         <v>83</v>
       </c>
       <c r="D20" s="7">
-        <v>57451</v>
+        <v>52399</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
       </c>
       <c r="I20" s="7">
-        <v>71972</v>
+        <v>64962</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
       </c>
       <c r="N20" s="7">
-        <v>129423</v>
+        <v>117361</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,46 +2205,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>5385</v>
+        <v>4793</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>5230</v>
+        <v>4745</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
       </c>
       <c r="N21" s="7">
-        <v>10614</v>
+        <v>9538</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,46 +2256,46 @@
         <v>188</v>
       </c>
       <c r="D22" s="7">
-        <v>133912</v>
+        <v>121550</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
       </c>
       <c r="I22" s="7">
-        <v>182311</v>
+        <v>189072</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>516</v>
       </c>
       <c r="N22" s="7">
-        <v>316223</v>
+        <v>310622</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2307,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2319,7 +2322,7 @@
         <v>495</v>
       </c>
       <c r="I23" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2334,7 +2337,7 @@
         <v>774</v>
       </c>
       <c r="N23" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2357,46 +2360,46 @@
         <v>71</v>
       </c>
       <c r="D24" s="7">
-        <v>47061</v>
+        <v>46269</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>69</v>
       </c>
       <c r="I24" s="7">
-        <v>34704</v>
+        <v>32740</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
       </c>
       <c r="N24" s="7">
-        <v>81765</v>
+        <v>79009</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>1602</v>
+        <v>1556</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>158</v>
@@ -2423,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>2810</v>
+        <v>2647</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>161</v>
@@ -2438,7 +2441,7 @@
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>4412</v>
+        <v>4203</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>164</v>
@@ -2459,7 +2462,7 @@
         <v>296</v>
       </c>
       <c r="D26" s="7">
-        <v>228560</v>
+        <v>221811</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>167</v>
@@ -2474,7 +2477,7 @@
         <v>384</v>
       </c>
       <c r="I26" s="7">
-        <v>238108</v>
+        <v>221668</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>170</v>
@@ -2489,16 +2492,16 @@
         <v>680</v>
       </c>
       <c r="N26" s="7">
-        <v>466668</v>
+        <v>443480</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2513,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2525,7 +2528,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2540,7 +2543,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2554,7 +2557,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2563,46 +2566,46 @@
         <v>179</v>
       </c>
       <c r="D28" s="7">
-        <v>176653</v>
+        <v>175378</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
       </c>
       <c r="I28" s="7">
-        <v>205438</v>
+        <v>190526</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>482</v>
       </c>
       <c r="N28" s="7">
-        <v>382091</v>
+        <v>365904</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,46 +2617,46 @@
         <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>13005</v>
+        <v>12665</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
       </c>
       <c r="I29" s="7">
-        <v>8657</v>
+        <v>8057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
       </c>
       <c r="N29" s="7">
-        <v>21662</v>
+        <v>20722</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,46 +2668,46 @@
         <v>404</v>
       </c>
       <c r="D30" s="7">
-        <v>436912</v>
+        <v>435098</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>637</v>
       </c>
       <c r="I30" s="7">
-        <v>586127</v>
+        <v>646920</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>1041</v>
       </c>
       <c r="N30" s="7">
-        <v>1023040</v>
+        <v>1082018</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2719,7 @@
         <v>597</v>
       </c>
       <c r="D31" s="7">
-        <v>626570</v>
+        <v>623141</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2731,7 +2734,7 @@
         <v>955</v>
       </c>
       <c r="I31" s="7">
-        <v>800222</v>
+        <v>845503</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2746,7 +2749,7 @@
         <v>1552</v>
       </c>
       <c r="N31" s="7">
-        <v>1426793</v>
+        <v>1468644</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2760,7 +2763,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2769,46 +2772,46 @@
         <v>29</v>
       </c>
       <c r="D32" s="7">
-        <v>26750</v>
+        <v>23237</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
       </c>
       <c r="I32" s="7">
-        <v>26823</v>
+        <v>22002</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>59</v>
       </c>
       <c r="N32" s="7">
-        <v>53573</v>
+        <v>45239</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,46 +2823,46 @@
         <v>10</v>
       </c>
       <c r="D33" s="7">
-        <v>8353</v>
+        <v>7160</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
       </c>
       <c r="I33" s="7">
-        <v>5902</v>
+        <v>4979</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
       </c>
       <c r="N33" s="7">
-        <v>14255</v>
+        <v>12139</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,46 +2874,46 @@
         <v>723</v>
       </c>
       <c r="D34" s="7">
-        <v>824325</v>
+        <v>898323</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>1024</v>
       </c>
       <c r="I34" s="7">
-        <v>835709</v>
+        <v>690750</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>1747</v>
       </c>
       <c r="N34" s="7">
-        <v>1660034</v>
+        <v>1589074</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,7 +2925,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2937,7 +2940,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2952,7 +2955,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -2975,46 +2978,46 @@
         <v>817</v>
       </c>
       <c r="D36" s="7">
-        <v>790339</v>
+        <v>779388</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>1454</v>
       </c>
       <c r="I36" s="7">
-        <v>977485</v>
+        <v>965663</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>2271</v>
       </c>
       <c r="N36" s="7">
-        <v>1767825</v>
+        <v>1745051</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,46 +3029,46 @@
         <v>50</v>
       </c>
       <c r="D37" s="7">
-        <v>43079</v>
+        <v>40386</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="H37" s="7">
         <v>64</v>
       </c>
       <c r="I37" s="7">
-        <v>34711</v>
+        <v>31932</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>114</v>
       </c>
       <c r="N37" s="7">
-        <v>77790</v>
+        <v>72318</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,46 +3080,46 @@
         <v>2506</v>
       </c>
       <c r="D38" s="7">
-        <v>2549576</v>
+        <v>2637885</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>3841</v>
       </c>
       <c r="I38" s="7">
-        <v>2817515</v>
+        <v>2709156</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>6347</v>
       </c>
       <c r="N38" s="7">
-        <v>5367092</v>
+        <v>5347041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3131,7 @@
         <v>3373</v>
       </c>
       <c r="D39" s="7">
-        <v>3382994</v>
+        <v>3457659</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3143,7 +3146,7 @@
         <v>5359</v>
       </c>
       <c r="I39" s="7">
-        <v>3829711</v>
+        <v>3706751</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3158,7 +3161,7 @@
         <v>8732</v>
       </c>
       <c r="N39" s="7">
-        <v>7212706</v>
+        <v>7164410</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3172,7 +3175,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
